--- a/02_Redigerte data/02_Opplæring og kompetanse/Slutta videregående opplæring UDIR.xlsx
+++ b/02_Redigerte data/02_Opplæring og kompetanse/Slutta videregående opplæring UDIR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/kjersti_aase_vtfk_no/Documents/GitHub/02_Redigerte data/02_Opplæring og kompetanse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/even_sannes_riiser_vtfk_no/Documents/Github/Vestfold og Telemark/02_Redigerte data/02_Opplæring og kompetanse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_AD4D1D646341095ACB7000CBADD9442A5ADEDD89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6D567AF-96AA-4C35-BC2B-EA6844C489D1}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4D1D646341095ACB7000CBADD9442A5ADEDD89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA5AC488-F701-4443-8976-927B4A663228}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="60" windowWidth="57600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53760" yWindow="0" windowWidth="23040" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -630,11 +630,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E66" sqref="E66:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
